--- a/code/results/experiment4/Experiment4-Tables.xlsx
+++ b/code/results/experiment4/Experiment4-Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maarten\Desktop\Afstuderen\thesis_stock_prediction_repo\code\results\experiment4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3422CD-EF54-4BFC-B34F-C5A3C440C233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DCB6C1-57BF-487B-A581-67AF316D9274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,23 @@
     <sheet name="time-lag" sheetId="2" r:id="rId3"/>
     <sheet name="missing-1or1" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="23">
   <si>
     <t>smape_mean</t>
   </si>
@@ -67,18 +78,6 @@
     <t>Apple</t>
   </si>
   <si>
-    <t>5-imputations-combined</t>
-  </si>
-  <si>
-    <t>cubicfit30</t>
-  </si>
-  <si>
-    <t>linearfit30</t>
-  </si>
-  <si>
-    <t>meanlast30</t>
-  </si>
-  <si>
     <t>CocaCola</t>
   </si>
   <si>
@@ -95,6 +94,15 @@
   </si>
   <si>
     <t>WITH SHIFTED  DATA AND EXTRA FEATURES</t>
+  </si>
+  <si>
+    <t>smape mean</t>
+  </si>
+  <si>
+    <t>smape std</t>
+  </si>
+  <si>
+    <t>5 imputations combined</t>
   </si>
 </sst>
 </file>
@@ -104,7 +112,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,16 +128,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -152,11 +172,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -173,11 +202,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67BFCEAD-0FEC-4214-8251-930517E1F9D2}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,21 +567,21 @@
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C1" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -556,461 +589,474 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1.1111177210890159E-2</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1.5943787465230161E-4</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1.8427365559369462E-2</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1.805101587636758E-3</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1.468324187889064E-2</v>
+      </c>
+      <c r="H3" s="6">
+        <v>2.2545334821566492E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2.2258674363552122E-2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1.1082751740545669E-3</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2.3135076810474581E-2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1.475633568495084E-3</v>
+      </c>
+      <c r="G4" s="6">
+        <v>2.73956235077372E-2</v>
+      </c>
+      <c r="H4" s="6">
+        <v>7.3730860559347879E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2.0305119356523901E-2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1.462732903883014E-3</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2.9471097495211141E-2</v>
+      </c>
+      <c r="F5" s="6">
+        <v>3.050990776349433E-3</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2.44577222135803E-2</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1.87098366211916E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2.97432063074877E-2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2.2796506536324939E-3</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3.6536320241153442E-2</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1.1361871146316439E-3</v>
+      </c>
+      <c r="G6" s="6">
+        <v>3.3172967040405218E-2</v>
+      </c>
+      <c r="H6" s="6">
+        <v>5.1052086948435234E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="6">
+        <v>2.3547853056212618E-2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1.4846367442459089E-3</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2.8057449263171459E-2</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2.4044211873132169E-3</v>
+      </c>
+      <c r="G7" s="6">
+        <v>2.65049057541967E-2</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1.39585586995238E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6">
+        <v>3.2554543662754939E-2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2.2916382769508281E-3</v>
+      </c>
+      <c r="E8" s="6">
+        <v>4.7384045476584633E-2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>3.341966244543164E-3</v>
+      </c>
+      <c r="G8" s="6">
+        <v>3.6897924209717443E-2</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1.535137007588406E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="7">
-        <v>1.1111177210890159E-2</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1.5943787465230161E-4</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1.8427365559369462E-2</v>
-      </c>
-      <c r="F3" s="7">
-        <v>1.805101587636758E-3</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1.468324187889064E-2</v>
-      </c>
-      <c r="H3" s="7">
-        <v>2.2545334821566492E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="6">
+        <v>7.9728148031074069E-3</v>
+      </c>
+      <c r="D9" s="6">
+        <v>3.2672066875858679E-3</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1.3267468095091771E-2</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1.2274139110472249E-2</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1.8554803713636221E-2</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1.5456354227339181E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6">
+        <v>7.0741252922213753E-3</v>
+      </c>
+      <c r="D10" s="6">
+        <v>8.9208191362983452E-4</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1.357437138308931E-2</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1.5104874655145791E-2</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1.5569510755065651E-2</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1.23513144630602E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6">
+        <v>7.4855810601000879E-3</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1.5289874674493189E-3</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1.4169675067890479E-2</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1.7524617558325861E-2</v>
+      </c>
+      <c r="G11" s="6">
+        <v>2.7375124535298442E-2</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1.8313512710765839E-2</v>
+      </c>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1.536335664186524E-2</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1.2162147298152549E-2</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1.998089449739705E-2</v>
+      </c>
+      <c r="F12" s="6">
+        <v>2.9820605872134521E-2</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1.077917424336391E-2</v>
+      </c>
+      <c r="H12" s="6">
+        <v>9.8997403519898268E-3</v>
+      </c>
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1.193539771678287E-2</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1.215549942582549E-2</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1.9462261556005469E-2</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1.3889381272486531E-2</v>
+      </c>
+      <c r="G13" s="6">
+        <v>4.0165277277995189E-2</v>
+      </c>
+      <c r="H13" s="6">
+        <v>2.2305025022695199E-2</v>
+      </c>
+      <c r="P13" s="9"/>
+      <c r="R13" s="9"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1.172227557681913E-2</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1.1322777533030201E-2</v>
+      </c>
+      <c r="E14" s="6">
+        <v>6.5307644495991744E-3</v>
+      </c>
+      <c r="F14" s="6">
+        <v>6.2005833696698171E-4</v>
+      </c>
+      <c r="G14" s="6">
+        <v>2.114971224844496E-2</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1.7032030485340129E-2</v>
+      </c>
+      <c r="P14" s="10"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7">
-        <v>2.2258674363552122E-2</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1.1082751740545669E-3</v>
-      </c>
-      <c r="E4" s="7">
-        <v>2.3135076810474581E-2</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1.475633568495084E-3</v>
-      </c>
-      <c r="G4" s="7">
-        <v>2.73956235077372E-2</v>
-      </c>
-      <c r="H4" s="7">
-        <v>7.3730860559347879E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2.152415700307532E-2</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1.283149743341942E-3</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1.6780949098344142E-2</v>
+      </c>
+      <c r="F15" s="6">
+        <v>5.2336905372723109E-4</v>
+      </c>
+      <c r="G15" s="6">
+        <v>2.2914798885559549E-2</v>
+      </c>
+      <c r="H15" s="6">
+        <v>4.7770132466299128E-3</v>
+      </c>
+      <c r="P15" s="10"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="6">
+        <v>5.35721575672208E-2</v>
+      </c>
+      <c r="D16" s="6">
+        <v>5.5588557695509612E-2</v>
+      </c>
+      <c r="E16" s="6">
+        <v>6.3765705416801405E-2</v>
+      </c>
+      <c r="F16" s="6">
+        <v>6.0462716725710741E-2</v>
+      </c>
+      <c r="G16" s="6">
+        <v>2.4299494265981599E-2</v>
+      </c>
+      <c r="H16" s="6">
+        <v>8.0188979193760914E-3</v>
+      </c>
+      <c r="P16" s="10"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7">
-        <v>2.0305119356523901E-2</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1.462732903883014E-3</v>
-      </c>
-      <c r="E5" s="7">
-        <v>2.9471097495211141E-2</v>
-      </c>
-      <c r="F5" s="7">
-        <v>3.050990776349433E-3</v>
-      </c>
-      <c r="G5" s="7">
-        <v>2.44577222135803E-2</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1.87098366211916E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
+      <c r="C17" s="6">
+        <v>2.2161111117458578E-2</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1.2750335070734939E-3</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1.8425365326145401E-2</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1.1957253605281281E-3</v>
+      </c>
+      <c r="G17" s="6">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="H17" s="6">
+        <v>8.0188979193760914E-3</v>
+      </c>
+      <c r="P17" s="9"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7">
-        <v>2.97432063074877E-2</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2.2796506536324939E-3</v>
-      </c>
-      <c r="E6" s="7">
-        <v>3.6536320241153442E-2</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1.1361871146316439E-3</v>
-      </c>
-      <c r="G6" s="7">
-        <v>3.3172967040405218E-2</v>
-      </c>
-      <c r="H6" s="7">
-        <v>5.1052086948435234E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="7">
-        <v>2.3547853056212618E-2</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1.4846367442459089E-3</v>
-      </c>
-      <c r="E7" s="7">
-        <v>2.8057449263171459E-2</v>
-      </c>
-      <c r="F7" s="7">
-        <v>2.4044211873132169E-3</v>
-      </c>
-      <c r="G7" s="7">
-        <v>2.65049057541967E-2</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1.39585586995238E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="7">
-        <v>3.2554543662754939E-2</v>
-      </c>
-      <c r="D8" s="7">
-        <v>2.2916382769508281E-3</v>
-      </c>
-      <c r="E8" s="7">
-        <v>4.7384045476584633E-2</v>
-      </c>
-      <c r="F8" s="7">
-        <v>3.341966244543164E-3</v>
-      </c>
-      <c r="G8" s="7">
-        <v>3.6897924209717443E-2</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1.535137007588406E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="7">
-        <v>7.9728148031074069E-3</v>
-      </c>
-      <c r="D9" s="7">
-        <v>3.2672066875858679E-3</v>
-      </c>
-      <c r="E9" s="7">
-        <v>1.3267468095091771E-2</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1.2274139110472249E-2</v>
-      </c>
-      <c r="G9" s="7">
-        <v>1.8554803713636221E-2</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1.5456354227339181E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="7">
-        <v>7.0741252922213753E-3</v>
-      </c>
-      <c r="D10" s="7">
-        <v>8.9208191362983452E-4</v>
-      </c>
-      <c r="E10" s="7">
-        <v>1.357437138308931E-2</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1.5104874655145791E-2</v>
-      </c>
-      <c r="G10" s="7">
-        <v>1.5569510755065651E-2</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1.23513144630602E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7">
-        <v>7.4855810601000879E-3</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1.5289874674493189E-3</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1.4169675067890479E-2</v>
-      </c>
-      <c r="F11" s="7">
-        <v>1.7524617558325861E-2</v>
-      </c>
-      <c r="G11" s="7">
-        <v>2.7375124535298442E-2</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1.8313512710765839E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1.536335664186524E-2</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1.2162147298152549E-2</v>
-      </c>
-      <c r="E12" s="7">
-        <v>1.998089449739705E-2</v>
-      </c>
-      <c r="F12" s="7">
-        <v>2.9820605872134521E-2</v>
-      </c>
-      <c r="G12" s="7">
-        <v>1.077917424336391E-2</v>
-      </c>
-      <c r="H12" s="7">
-        <v>9.8997403519898268E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1.193539771678287E-2</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1.215549942582549E-2</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1.9462261556005469E-2</v>
-      </c>
-      <c r="F13" s="7">
-        <v>1.3889381272486531E-2</v>
-      </c>
-      <c r="G13" s="7">
-        <v>4.0165277277995189E-2</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2.2305025022695199E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1.172227557681913E-2</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1.1322777533030201E-2</v>
-      </c>
-      <c r="E14" s="7">
-        <v>6.5307644495991744E-3</v>
-      </c>
-      <c r="F14" s="7">
-        <v>6.2005833696698171E-4</v>
-      </c>
-      <c r="G14" s="7">
-        <v>2.114971224844496E-2</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1.7032030485340129E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="C18" s="6">
+        <v>4.8362510791814937E-2</v>
+      </c>
+      <c r="D18" s="6">
+        <v>5.7583316299922138E-2</v>
+      </c>
+      <c r="E18" s="6">
+        <v>3.3146758180264239E-2</v>
+      </c>
+      <c r="F18" s="6">
+        <v>2.382424448715843E-2</v>
+      </c>
+      <c r="G18" s="6">
+        <v>2.4241741452972521E-2</v>
+      </c>
+      <c r="H18" s="6">
+        <v>5.5018498915836572E-3</v>
+      </c>
+      <c r="P18" s="9"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="6">
+        <v>3.2828589529127407E-2</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1.69203330273726E-2</v>
+      </c>
+      <c r="E19" s="6">
+        <v>2.4216859208894121E-2</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1.426347486899472E-2</v>
+      </c>
+      <c r="G19" s="6">
+        <v>2.57652787507767E-2</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1.0050387666931121E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="6">
+        <v>2.343370592760418E-2</v>
+      </c>
+      <c r="D20" s="6">
+        <v>4.0364809039773724E-3</v>
+      </c>
+      <c r="E20" s="6">
+        <v>2.1210861688298721E-2</v>
+      </c>
+      <c r="F20" s="6">
+        <v>3.0399303930840399E-3</v>
+      </c>
+      <c r="G20" s="6">
+        <v>2.441609342097156E-2</v>
+      </c>
+      <c r="H20" s="6">
+        <v>5.3083327900878621E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="7">
-        <v>2.152415700307532E-2</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1.283149743341942E-3</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1.6780949098344142E-2</v>
-      </c>
-      <c r="F15" s="7">
-        <v>5.2336905372723109E-4</v>
-      </c>
-      <c r="G15" s="7">
-        <v>2.2914798885559549E-2</v>
-      </c>
-      <c r="H15" s="7">
-        <v>4.7770132466299128E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="7">
-        <v>5.35721575672208E-2</v>
-      </c>
-      <c r="D16" s="7">
-        <v>5.5588557695509612E-2</v>
-      </c>
-      <c r="E16" s="7">
-        <v>6.3765705416801405E-2</v>
-      </c>
-      <c r="F16" s="7">
-        <v>6.0462716725710741E-2</v>
-      </c>
-      <c r="G16" s="7">
-        <v>2.4299494265981599E-2</v>
-      </c>
-      <c r="H16" s="7">
-        <v>8.0188979193760914E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="7">
-        <v>2.2161111117458578E-2</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1.2750335070734939E-3</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1.8425365326145401E-2</v>
-      </c>
-      <c r="F17" s="7">
-        <v>1.1957253605281281E-3</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="7">
-        <v>4.8362510791814937E-2</v>
-      </c>
-      <c r="D18" s="7">
-        <v>5.7583316299922138E-2</v>
-      </c>
-      <c r="E18" s="7">
-        <v>3.3146758180264239E-2</v>
-      </c>
-      <c r="F18" s="7">
-        <v>2.382424448715843E-2</v>
-      </c>
-      <c r="G18" s="7">
-        <v>2.4241741452972521E-2</v>
-      </c>
-      <c r="H18" s="7">
-        <v>5.5018498915836572E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="7">
-        <v>3.2828589529127407E-2</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1.69203330273726E-2</v>
-      </c>
-      <c r="E19" s="7">
-        <v>2.4216859208894121E-2</v>
-      </c>
-      <c r="F19" s="7">
-        <v>1.426347486899472E-2</v>
-      </c>
-      <c r="G19" s="7">
-        <v>2.57652787507767E-2</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1.0050387666931121E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2.343370592760418E-2</v>
-      </c>
-      <c r="D20" s="7">
-        <v>4.0364809039773724E-3</v>
-      </c>
-      <c r="E20" s="7">
-        <v>2.1210861688298721E-2</v>
-      </c>
-      <c r="F20" s="7">
-        <v>3.0399303930840399E-3</v>
-      </c>
-      <c r="G20" s="7">
-        <v>2.441609342097156E-2</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5.3083327900878621E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
